--- a/Data/g15.2.xlsx
+++ b/Data/g15.2.xlsx
@@ -382,11 +382,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>31/12/2002</t>
+          <t>31/12/2006</t>
         </is>
       </c>
       <c r="C2">
-        <v>2.26</v>
+        <v>1.87984550086694</v>
       </c>
     </row>
     <row r="3">
@@ -397,11 +397,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>31/12/2006</t>
+          <t>31/12/2010</t>
         </is>
       </c>
       <c r="C3">
-        <v>2.04</v>
+        <v>1.74571102459612</v>
       </c>
     </row>
     <row r="4">
@@ -412,11 +412,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>31/12/2010</t>
+          <t>31/12/2014</t>
         </is>
       </c>
       <c r="C4">
-        <v>1.87</v>
+        <v>1.78994618138214</v>
       </c>
     </row>
     <row r="5">
@@ -427,11 +427,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>31/12/2014</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="C5">
-        <v>1.74</v>
+        <v>1.77923455058482</v>
       </c>
     </row>
     <row r="6">
@@ -442,11 +442,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C6">
-        <v>1.7706</v>
+        <v>1.57625383660638</v>
       </c>
     </row>
     <row r="7">
@@ -457,11 +457,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2024</t>
         </is>
       </c>
       <c r="C7">
-        <v>1.7472</v>
+        <v>1.54680260681053</v>
       </c>
     </row>
     <row r="8">
@@ -472,11 +472,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>31/12/2002</t>
+          <t>31/12/2006</t>
         </is>
       </c>
       <c r="C8">
-        <v>2.55</v>
+        <v>2.06230151318107</v>
       </c>
     </row>
     <row r="9">
@@ -487,11 +487,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>31/12/2006</t>
+          <t>31/12/2010</t>
         </is>
       </c>
       <c r="C9">
-        <v>2.25</v>
+        <v>1.83798130257565</v>
       </c>
     </row>
     <row r="10">
@@ -502,11 +502,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>31/12/2010</t>
+          <t>31/12/2014</t>
         </is>
       </c>
       <c r="C10">
-        <v>2.02</v>
+        <v>1.77809089870609</v>
       </c>
     </row>
     <row r="11">
@@ -517,11 +517,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>31/12/2014</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="C11">
-        <v>1.85</v>
+        <v>1.80512077932592</v>
       </c>
     </row>
     <row r="12">
@@ -532,11 +532,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C12">
-        <v>1.7472</v>
+        <v>1.56612675297142</v>
       </c>
     </row>
     <row r="13">
@@ -547,11 +547,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2024</t>
         </is>
       </c>
       <c r="C13">
-        <v>1.7158</v>
+        <v>1.54418474547815</v>
       </c>
     </row>
     <row r="14">
@@ -562,11 +562,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>31/12/2002</t>
+          <t>31/12/2006</t>
         </is>
       </c>
       <c r="C14">
-        <v>2.63</v>
+        <v>2.08844892856124</v>
       </c>
     </row>
     <row r="15">
@@ -577,11 +577,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>31/12/2006</t>
+          <t>31/12/2010</t>
         </is>
       </c>
       <c r="C15">
-        <v>2.24</v>
+        <v>1.8277327274294</v>
       </c>
     </row>
     <row r="16">
@@ -592,11 +592,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>31/12/2010</t>
+          <t>31/12/2014</t>
         </is>
       </c>
       <c r="C16">
-        <v>1.97</v>
+        <v>1.78769503823641</v>
       </c>
     </row>
     <row r="17">
@@ -607,11 +607,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>31/12/2014</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="C17">
-        <v>1.79</v>
+        <v>1.78826541448712</v>
       </c>
     </row>
     <row r="18">
@@ -622,11 +622,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C18">
-        <v>1.74</v>
+        <v>1.52533730886118</v>
       </c>
     </row>
     <row r="19">
@@ -637,11 +637,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2024</t>
         </is>
       </c>
       <c r="C19">
-        <v>1.6989</v>
+        <v>1.52462190148086</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g15.2.xlsx
+++ b/Data/g15.2.xlsx
@@ -457,11 +457,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
+          <t>31/12/2025</t>
         </is>
       </c>
       <c r="C7">
-        <v>1.54680260681053</v>
+        <v>1.52847110399664</v>
       </c>
     </row>
     <row r="8">
@@ -547,11 +547,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
+          <t>31/12/2025</t>
         </is>
       </c>
       <c r="C13">
-        <v>1.54418474547815</v>
+        <v>1.52290951123554</v>
       </c>
     </row>
     <row r="14">
@@ -637,11 +637,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
+          <t>31/12/2025</t>
         </is>
       </c>
       <c r="C19">
-        <v>1.52462190148086</v>
+        <v>1.50292233927388</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g15.2.xlsx
+++ b/Data/g15.2.xlsx
@@ -1,46 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -48,21 +45,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -350,14 +420,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Região</t>
@@ -371,6 +447,11 @@
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Valor</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Projeção</t>
         </is>
       </c>
     </row>
@@ -382,11 +463,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>31/12/2006</t>
-        </is>
-      </c>
-      <c r="C2">
-        <v>1.87984550086694</v>
+          <t>01/01/2000</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -397,11 +481,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>31/12/2010</t>
-        </is>
-      </c>
-      <c r="C3">
-        <v>1.74571102459612</v>
+          <t>01/01/2004</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -412,11 +499,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>31/12/2014</t>
-        </is>
-      </c>
-      <c r="C4">
-        <v>1.78994618138214</v>
+          <t>01/01/2008</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -427,11 +517,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="C5">
-        <v>1.77923455058482</v>
+          <t>01/01/2012</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -442,11 +535,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="C6">
-        <v>1.57625383660638</v>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -457,41 +553,50 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>31/12/2025</t>
-        </is>
-      </c>
-      <c r="C7">
-        <v>1.52847110399664</v>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>31/12/2006</t>
-        </is>
-      </c>
-      <c r="C8">
-        <v>2.06230151318107</v>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>31/12/2010</t>
-        </is>
-      </c>
-      <c r="C9">
-        <v>1.83798130257565</v>
+          <t>01/01/2028</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -502,11 +607,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>31/12/2014</t>
-        </is>
-      </c>
-      <c r="C10">
-        <v>1.77809089870609</v>
+          <t>01/01/2000</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -517,11 +625,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="C11">
-        <v>1.80512077932592</v>
+          <t>01/01/2004</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -532,11 +643,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="C12">
-        <v>1.56612675297142</v>
+          <t>01/01/2008</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -547,71 +661,86 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>31/12/2025</t>
-        </is>
-      </c>
-      <c r="C13">
-        <v>1.52290951123554</v>
+          <t>01/01/2012</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>31/12/2006</t>
-        </is>
-      </c>
-      <c r="C14">
-        <v>2.08844892856124</v>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>31/12/2010</t>
-        </is>
-      </c>
-      <c r="C15">
-        <v>1.8277327274294</v>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>31/12/2014</t>
-        </is>
-      </c>
-      <c r="C16">
-        <v>1.78769503823641</v>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="C17">
-        <v>1.78826541448712</v>
+          <t>01/01/2028</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -622,11 +751,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="C18">
-        <v>1.52533730886118</v>
+          <t>01/01/2000</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -637,14 +769,125 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>31/12/2025</t>
-        </is>
-      </c>
-      <c r="C19">
-        <v>1.50292233927388</v>
+          <t>01/01/2004</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>01/01/2008</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>01/01/2012</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>01/01/2028</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>